--- a/数据整理/stocks/A股/上证主板/603668-天马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603668-天马科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -697,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,17 +709,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -728,13 +749,711 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6417</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3932</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603668-天马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603668-天马科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.18</v>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1447,13 +1490,1297 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7583</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5380</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4303</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002398</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002399</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603668-天马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603668-天马科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>6.93</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>3.18</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -532,6 +549,2144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发盛锦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4838</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9810</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6761</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4081</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012527</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发盛锦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015133</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015134</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>58.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015668</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015807</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016041</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>016480</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>016617</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1841,7 +3996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2543,7 +4698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603668-天马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603668-天马科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>12.02</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>6.93</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>3.18</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -549,6 +566,2030 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0931</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发盛锦混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2786</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2725</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2301</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9057</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7757</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4236</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3838</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城安心回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016617</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012527</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发盛锦混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015965</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城安心回报混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015133</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015134</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>36.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014556</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>68.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>68.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016480</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015807</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014557</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>016041</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2686,7 +4727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3996,7 +6037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4698,7 +6739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
